--- a/Jenkins指南.xlsx
+++ b/Jenkins指南.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E76B28C-376A-4758-A4AE-F9FDDF635D17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B1442-F2F7-455D-885D-649F0CC034B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
+    <sheet name="部署到Tomcat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,12 +102,185 @@
     <t>5.启动tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>配置JDK、Maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deploy to container Plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Maven Integration plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipeline Maven Integration Plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注明源码出处、账号密码、分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven build的golas:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean install -Dmaven.test.skip=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> target/***.war</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Context Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 打包在Tomcat下webapps下的位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VAR/EAR files: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jenkins的war包位置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Credentials </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tomcat的账号密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tomcat URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tomcat的地址，只需要注明URL即可</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Tomcat文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的用户名密码跟上一步的Credentials一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标Tomcat的conf的tomcat-users.xml文件中，增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标Tomcat的webapps\manager\META-INF文件夹下修改context.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销掉 Valve className="org.apache.catalina.valves.RemoteAddrValve"
+         allow="127\.\d+\.\d+\.\d+|::1|0:0:0:0:0:0:0:1" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一句表示只能从本机访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启Tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +306,23 @@
       <color rgb="FF444444"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,16 +351,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B4438C2E-ADE3-42AF-8A02-EE257B3FD3AE}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -179,6 +400,566 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5136541-3D26-4070-BDA3-E03B657B959A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="542925"/>
+          <a:ext cx="7561905" cy="3838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>294523</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1289B7-B30C-4C53-B38F-B52B4F50737B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="571500"/>
+          <a:ext cx="6019048" cy="1828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>513558</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A369F7AB-518A-497F-80A7-8BB2B1E5ED77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="2847975"/>
+          <a:ext cx="6333333" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189551</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D26F69-8EB1-4BC3-A475-7F94D3C7E757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5162550"/>
+          <a:ext cx="7590476" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18208</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66293F5-1DC8-4488-B4DA-5C3AE531715B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11944350"/>
+          <a:ext cx="6733333" cy="2819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>350770</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>132833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAD6A15-7288-4F61-9FE0-722CAAB8A145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15544800"/>
+          <a:ext cx="13238095" cy="4133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598389</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>142689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C045917A-FB5C-4AC3-94FA-77EAA7877412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20735925"/>
+          <a:ext cx="13485714" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93542</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>18505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E696FD-D494-465C-8FBB-8FC7DC5C2676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22983825"/>
+          <a:ext cx="13666667" cy="4361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5387693" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B409E5-FC3F-4E3F-A696-F488EC41F5AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28755975"/>
+          <a:ext cx="5387693" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;role rolename="manager-gui" /&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;role rolename="manager-script" /&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;user username="deployer" password="deployer" roles="manager-gui, manager-script" /&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>456218</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>85511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BCB1F5-DADD-45E5-913E-4C9A9D978727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29679900"/>
+          <a:ext cx="7857143" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>684446</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>85556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C07B31-E8E4-4AF7-B509-E1BDCAFFD7DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32213550"/>
+          <a:ext cx="10828571" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333094</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>18640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55552B8C-7207-4BC1-AD40-DF47270BB293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35109150"/>
+          <a:ext cx="2247619" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,4 +1301,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37250B15-2159-43C3-BDCC-085B085A6A2F}">
+  <dimension ref="A1:U193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U132" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U135" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U137" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U139" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>